--- a/biology/Médecine/Syndrome_de_Möbius/Syndrome_de_Möbius.xlsx
+++ b/biology/Médecine/Syndrome_de_Möbius/Syndrome_de_Möbius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le syndrome de Möbius ou Moebius ou encore maladie du sourire est une maladie génétique congénitale extrêmement rare[1].
+Le syndrome de Möbius ou Moebius ou encore maladie du sourire est une maladie génétique congénitale extrêmement rare.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce syndrome porte le nom du professeur allemand Paul Julius Möbius[2],[3], neurologue et psychiatre qui le décrit pour la première fois en 1886.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce syndrome porte le nom du professeur allemand Paul Julius Möbius neurologue et psychiatre qui le décrit pour la première fois en 1886.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène responsable de cette maladie n'a pas encore été identifié mais il semble localisé sur le locus q12.2-q13 du chromosome 13.
 La transmission de ce syndrome reste à ce jour indéterminée mais semble apparaître de manière très sporadique.
-Seulement 300 cas seraient recensés dans le monde[4].
+Seulement 300 cas seraient recensés dans le monde.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les symptômes sont dus au sous-développement des sixième et septième nerfs crâniens. D'autres nerfs crâniens sont souvent touchés (3e, 5e, 7e, 9e, 11e et 12e)[5].
-L'exposition in utéro au misoprostol, une pilule abortive pourrait multiplier par 30 à 50 la probabilité d'en être atteint[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes sont dus au sous-développement des sixième et septième nerfs crâniens. D'autres nerfs crâniens sont souvent touchés (3e, 5e, 7e, 9e, 11e et 12e).
+L'exposition in utéro au misoprostol, une pilule abortive pourrait multiplier par 30 à 50 la probabilité d'en être atteint.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,15 +628,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Signes fonctionnels
-Cette maladie se caractérise par une paralysie faciale congénitale : les personnes atteintes du syndrome de Möbius ne peuvent ni sourire ni froncer les sourcils ; souvent elles ne peuvent pas cligner les yeux ni les bouger d'un côté ou de l'autre.
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maladie se caractérise par une paralysie faciale congénitale : les personnes atteintes du syndrome de Möbius ne peuvent ni sourire ni froncer les sourcils ; souvent elles ne peuvent pas cligner les yeux ni les bouger d'un côté ou de l'autre.
 Dans quelques cas, le syndrome est aussi associé à des problèmes physiques sur d'autres parties du corps : un raccourcissement et une déformation de la langue, de la mâchoire ou encore des malformations des membres telles qu'un pied bot, des doigts manquants ou palmés.
-Chez les nouveau-nés, le premier signe clinique est une diminution de l'aptitude à téter[4]. Les personnes peuvent baver de façon excessive, être atteintes de strabisme et d'une difficulté à respirer. La plupart des enfants souffrent d'une tonicité musculaire affaiblie plus particulièrement dans la partie supérieure du corps. Certains nouveau-nés naissent aveugles.
+Chez les nouveau-nés, le premier signe clinique est une diminution de l'aptitude à téter. Les personnes peuvent baver de façon excessive, être atteintes de strabisme et d'une difficulté à respirer. La plupart des enfants souffrent d'une tonicité musculaire affaiblie plus particulièrement dans la partie supérieure du corps. Certains nouveau-nés naissent aveugles.
 Le syndrome de Möbius est quelquefois accompagné du syndrome de Pierre Robin (un des syndromes du premier arc) et du syndrome de Poland.
-Examen clinique
-L'examen clinique est très complexe et n'oriente généralement pas vers cette maladie en premier lieu.
-L'observation peut révéler une limitation de l'ouverture de bouche, une mobilité de la langue limitée, ainsi qu'un aspect de strabisme en plus d'expressions faciales très limitées[7].
-Examens complémentaires</t>
+</t>
         </is>
       </c>
     </row>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,13 +663,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-La correction de troubles de ce syndrome passe par la chirurgie plastique et reconstructrice. Plusieurs spécialistes officient à l'hôpital Necker (Paris).</t>
+          <t>Examen clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen clinique est très complexe et n'oriente généralement pas vers cette maladie en premier lieu.
+L'observation peut révéler une limitation de l'ouverture de bouche, une mobilité de la langue limitée, ainsi qu'un aspect de strabisme en plus d'expressions faciales très limitées.
+</t>
         </is>
       </c>
     </row>
@@ -659,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
+          <t>Syndrome_de_Möbius</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,10 +701,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La correction de troubles de ce syndrome passe par la chirurgie plastique et reconstructrice. Plusieurs spécialistes officient à l'hôpital Necker (Paris).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Möbius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_M%C3%B6bius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Évolution et complications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Chaque cas de syndrome du Möbius est différent et chaque personne peut être atteinte à un stade différent.
 De l'orthophonie est nécessaire pour aider l'enfant à articuler.
@@ -685,31 +747,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_de_M%C3%B6bius</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_M%C3%B6bius</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Möbius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_M%C3%B6bius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
